--- a/data/trans_orig/IP1021_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP1021_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{999A68DB-BCE5-47F9-A5C8-6E381D286D25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{71C514FC-4657-4AC1-BFC3-A5E478AFE4BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{17F0DD8B-6776-480C-A5C8-88A4F8C86C23}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{6A7A6838-4EC1-4540-86A8-01B06E08F901}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -125,6 +125,63 @@
     <t>100%</t>
   </si>
   <si>
+    <t>5/9</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>96,46%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>95,94%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>96,8%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
     <t>10/15</t>
   </si>
   <si>
@@ -168,63 +225,6 @@
   </si>
   <si>
     <t>3,18%</t>
-  </si>
-  <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>96,46%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>95,94%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>96,8%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
   </si>
   <si>
     <t>98,39%</t>
@@ -664,7 +664,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B4A19FD-F953-414A-A52A-95575B851879}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BE396A9-034D-47D9-A6A6-D0612914DD70}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -937,10 +937,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>470</v>
+        <v>266</v>
       </c>
       <c r="D7" s="7">
-        <v>395084</v>
+        <v>201876</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>30</v>
@@ -949,37 +949,37 @@
         <v>31</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="H7" s="7">
-        <v>448</v>
+        <v>275</v>
       </c>
       <c r="I7" s="7">
-        <v>342116</v>
+        <v>194494</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M7" s="7">
-        <v>918</v>
+        <v>541</v>
       </c>
       <c r="N7" s="7">
-        <v>737200</v>
+        <v>396371</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -988,49 +988,49 @@
         <v>19</v>
       </c>
       <c r="C8" s="7">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D8" s="7">
-        <v>7087</v>
+        <v>3179</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H8" s="7">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="I8" s="7">
-        <v>8692</v>
+        <v>3773</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="M8" s="7">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="N8" s="7">
-        <v>15779</v>
+        <v>6952</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1039,10 +1039,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>478</v>
+        <v>271</v>
       </c>
       <c r="D9" s="7">
-        <v>402171</v>
+        <v>205055</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>28</v>
@@ -1054,10 +1054,10 @@
         <v>28</v>
       </c>
       <c r="H9" s="7">
-        <v>462</v>
+        <v>281</v>
       </c>
       <c r="I9" s="7">
-        <v>350808</v>
+        <v>198267</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>28</v>
@@ -1069,10 +1069,10 @@
         <v>28</v>
       </c>
       <c r="M9" s="7">
-        <v>940</v>
+        <v>552</v>
       </c>
       <c r="N9" s="7">
-        <v>752979</v>
+        <v>403323</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>28</v>
@@ -1086,55 +1086,55 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>266</v>
+        <v>470</v>
       </c>
       <c r="D10" s="7">
-        <v>201876</v>
+        <v>395084</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="H10" s="7">
-        <v>275</v>
+        <v>448</v>
       </c>
       <c r="I10" s="7">
-        <v>194494</v>
+        <v>342116</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="M10" s="7">
-        <v>541</v>
+        <v>918</v>
       </c>
       <c r="N10" s="7">
-        <v>396371</v>
+        <v>737200</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1143,28 +1143,28 @@
         <v>19</v>
       </c>
       <c r="C11" s="7">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D11" s="7">
-        <v>3179</v>
+        <v>7087</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H11" s="7">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="I11" s="7">
-        <v>3773</v>
+        <v>8692</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>58</v>
@@ -1173,10 +1173,10 @@
         <v>59</v>
       </c>
       <c r="M11" s="7">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="N11" s="7">
-        <v>6952</v>
+        <v>15779</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>60</v>
@@ -1194,10 +1194,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>271</v>
+        <v>478</v>
       </c>
       <c r="D12" s="7">
-        <v>205055</v>
+        <v>402171</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>28</v>
@@ -1209,10 +1209,10 @@
         <v>28</v>
       </c>
       <c r="H12" s="7">
-        <v>281</v>
+        <v>462</v>
       </c>
       <c r="I12" s="7">
-        <v>198267</v>
+        <v>350808</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>28</v>
@@ -1224,10 +1224,10 @@
         <v>28</v>
       </c>
       <c r="M12" s="7">
-        <v>552</v>
+        <v>940</v>
       </c>
       <c r="N12" s="7">
-        <v>403323</v>
+        <v>752979</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>28</v>
@@ -1274,7 +1274,7 @@
         <v>67</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="M13" s="7">
         <v>1881</v>
@@ -1322,7 +1322,7 @@
         <v>74</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>75</v>

--- a/data/trans_orig/IP1021_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP1021_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{71C514FC-4657-4AC1-BFC3-A5E478AFE4BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6A47FA8E-EA38-48EC-A619-32694F3F2A9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{6A7A6838-4EC1-4540-86A8-01B06E08F901}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{DC279D50-50A2-43B1-978E-30BD223FA878}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="96">
   <si>
     <t>Menores según si padecen dolor crónico en 2023 (Tasa respuesta: 99,9%)</t>
   </si>
@@ -65,214 +65,265 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>0/4</t>
+    <t>0-2</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>95,89%</t>
-  </si>
-  <si>
     <t>100,0%</t>
   </si>
   <si>
-    <t>99,24%</t>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>96,34%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>99,74%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>95,51%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>94,23%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>95,61%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>96,38%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
   </si>
   <si>
     <t>97,59%</t>
   </si>
   <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>96,46%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>95,94%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>96,8%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>10/15</t>
-  </si>
-  <si>
-    <t>98,24%</t>
+    <t>95,63%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
   </si>
   <si>
     <t>96,72%</t>
   </si>
   <si>
-    <t>95,85%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>96,82%</t>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>96,9%</t>
   </si>
   <si>
     <t>98,69%</t>
   </si>
   <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
-  </si>
-  <si>
     <t>98,19%</t>
   </si>
   <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
   </si>
 </sst>
 </file>
@@ -283,7 +334,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -379,39 +430,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -463,7 +514,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -574,13 +625,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -589,6 +633,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -653,19 +704,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BE396A9-034D-47D9-A6A6-D0612914DD70}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C66E79B2-7434-4F60-99E3-01D169179417}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -782,10 +853,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>225</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>116544</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -797,85 +868,85 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>197</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>103010</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="M4" s="7">
+        <v>0</v>
+      </c>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M4" s="7">
-        <v>422</v>
-      </c>
-      <c r="N4" s="7">
-        <v>219554</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>2</v>
+        <v>116</v>
       </c>
       <c r="D5" s="7">
-        <v>1394</v>
+        <v>58503</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="7">
+        <v>109</v>
+      </c>
+      <c r="I5" s="7">
+        <v>57369</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="L5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M5" s="7">
+        <v>225</v>
+      </c>
+      <c r="N5" s="7">
+        <v>115871</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" s="7">
-        <v>2</v>
-      </c>
-      <c r="I5" s="7">
-        <v>793</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="M5" s="7">
-        <v>4</v>
-      </c>
-      <c r="N5" s="7">
-        <v>2187</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>26</v>
-      </c>
       <c r="Q5" s="7" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -884,153 +955,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>227</v>
+        <v>116</v>
       </c>
       <c r="D6" s="7">
-        <v>117938</v>
+        <v>58503</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="H6" s="7">
-        <v>199</v>
+        <v>109</v>
       </c>
       <c r="I6" s="7">
-        <v>103803</v>
+        <v>57369</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="M6" s="7">
-        <v>426</v>
+        <v>225</v>
       </c>
       <c r="N6" s="7">
-        <v>221741</v>
+        <v>115871</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>266</v>
+        <v>5</v>
       </c>
       <c r="D7" s="7">
-        <v>201876</v>
+        <v>2892</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" s="7">
+        <v>4</v>
+      </c>
+      <c r="I7" s="7">
+        <v>1726</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="M7" s="7">
+        <v>9</v>
+      </c>
+      <c r="N7" s="7">
+        <v>4619</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>31</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="H7" s="7">
-        <v>275</v>
-      </c>
-      <c r="I7" s="7">
-        <v>194494</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="M7" s="7">
-        <v>541</v>
-      </c>
-      <c r="N7" s="7">
-        <v>396371</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>5</v>
+        <v>271</v>
       </c>
       <c r="D8" s="7">
-        <v>3179</v>
+        <v>172407</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H8" s="7">
+        <v>254</v>
+      </c>
+      <c r="I8" s="7">
+        <v>157039</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="M8" s="7">
+        <v>525</v>
+      </c>
+      <c r="N8" s="7">
+        <v>329444</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>40</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="H8" s="7">
-        <v>6</v>
-      </c>
-      <c r="I8" s="7">
-        <v>3773</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="M8" s="7">
-        <v>11</v>
-      </c>
-      <c r="N8" s="7">
-        <v>6952</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1039,153 +1110,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="D9" s="7">
-        <v>205055</v>
+        <v>175299</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="H9" s="7">
-        <v>281</v>
+        <v>258</v>
       </c>
       <c r="I9" s="7">
-        <v>198267</v>
+        <v>158765</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="M9" s="7">
-        <v>552</v>
+        <v>534</v>
       </c>
       <c r="N9" s="7">
-        <v>403323</v>
+        <v>334063</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>470</v>
+        <v>5</v>
       </c>
       <c r="D10" s="7">
-        <v>395084</v>
+        <v>4287</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H10" s="7">
+        <v>8</v>
+      </c>
+      <c r="I10" s="7">
+        <v>5238</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="M10" s="7">
+        <v>13</v>
+      </c>
+      <c r="N10" s="7">
+        <v>9525</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>49</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H10" s="7">
-        <v>448</v>
-      </c>
-      <c r="I10" s="7">
-        <v>342116</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="M10" s="7">
-        <v>918</v>
-      </c>
-      <c r="N10" s="7">
-        <v>737200</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>8</v>
+        <v>237</v>
       </c>
       <c r="D11" s="7">
-        <v>7087</v>
+        <v>197652</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H11" s="7">
+        <v>225</v>
+      </c>
+      <c r="I11" s="7">
+        <v>170875</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="M11" s="7">
+        <v>462</v>
+      </c>
+      <c r="N11" s="7">
+        <v>368527</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="F11" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="H11" s="7">
-        <v>14</v>
-      </c>
-      <c r="I11" s="7">
-        <v>8692</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="M11" s="7">
-        <v>22</v>
-      </c>
-      <c r="N11" s="7">
-        <v>15779</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>61</v>
-      </c>
       <c r="Q11" s="7" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1194,153 +1265,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>478</v>
+        <v>242</v>
       </c>
       <c r="D12" s="7">
-        <v>402171</v>
+        <v>201939</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="H12" s="7">
-        <v>462</v>
+        <v>233</v>
       </c>
       <c r="I12" s="7">
-        <v>350808</v>
+        <v>176113</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="M12" s="7">
-        <v>940</v>
+        <v>475</v>
       </c>
       <c r="N12" s="7">
-        <v>752979</v>
+        <v>378052</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>58</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>961</v>
+        <v>5</v>
       </c>
       <c r="D13" s="7">
-        <v>713505</v>
+        <v>4480</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H13" s="7">
+        <v>10</v>
+      </c>
+      <c r="I13" s="7">
+        <v>6294</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>15</v>
+      </c>
+      <c r="N13" s="7">
+        <v>10774</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="H13" s="7">
-        <v>920</v>
-      </c>
-      <c r="I13" s="7">
-        <v>639620</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="M13" s="7">
-        <v>1881</v>
-      </c>
-      <c r="N13" s="7">
-        <v>1353126</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>15</v>
+        <v>337</v>
       </c>
       <c r="D14" s="7">
-        <v>11660</v>
+        <v>284944</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="H14" s="7">
+        <v>332</v>
+      </c>
+      <c r="I14" s="7">
+        <v>254339</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="H14" s="7">
-        <v>22</v>
-      </c>
-      <c r="I14" s="7">
-        <v>13259</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>669</v>
+      </c>
+      <c r="N14" s="7">
+        <v>539283</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="K14" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="L14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="M14" s="7">
-        <v>37</v>
-      </c>
-      <c r="N14" s="7">
-        <v>24918</v>
-      </c>
-      <c r="O14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1349,55 +1420,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>342</v>
+      </c>
+      <c r="D15" s="7">
+        <v>289424</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="7">
+        <v>342</v>
+      </c>
+      <c r="I15" s="7">
+        <v>260633</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M15" s="7">
+        <v>684</v>
+      </c>
+      <c r="N15" s="7">
+        <v>550057</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>15</v>
+      </c>
+      <c r="D16" s="7">
+        <v>11660</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="H16" s="7">
+        <v>22</v>
+      </c>
+      <c r="I16" s="7">
+        <v>13259</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="M16" s="7">
+        <v>37</v>
+      </c>
+      <c r="N16" s="7">
+        <v>24918</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="7">
+        <v>961</v>
+      </c>
+      <c r="D17" s="7">
+        <v>713505</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="H17" s="7">
+        <v>920</v>
+      </c>
+      <c r="I17" s="7">
+        <v>639620</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="M17" s="7">
+        <v>1881</v>
+      </c>
+      <c r="N17" s="7">
+        <v>1353126</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
         <v>976</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D18" s="7">
         <v>725165</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="7">
         <v>942</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I18" s="7">
         <v>652879</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M18" s="7">
         <v>1918</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>1378044</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>28</v>
+      <c r="O18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>

--- a/data/trans_orig/IP1021_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP1021_2023-Edad-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6A47FA8E-EA38-48EC-A619-32694F3F2A9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8B857BF2-E3DD-47B3-A82F-785941C6DE05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{DC279D50-50A2-43B1-978E-30BD223FA878}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{53A19592-C34F-4A5F-8370-C3B7E555715B}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -110,10 +110,10 @@
     <t>1,65%</t>
   </si>
   <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
   </si>
   <si>
     <t>1,09%</t>
@@ -122,205 +122,205 @@
     <t>0,26%</t>
   </si>
   <si>
-    <t>2,71%</t>
+    <t>2,68%</t>
   </si>
   <si>
     <t>1,38%</t>
   </si>
   <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>99,74%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>95,33%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>94,37%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>95,69%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
     <t>0,58%</t>
   </si>
   <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>96,34%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>99,74%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>97,31%</t>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
   </si>
   <si>
     <t>99,42%</t>
   </si>
   <si>
-    <t>8-11</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>95,51%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>97,03%</t>
-  </si>
-  <si>
-    <t>94,23%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
+    <t>97,59%</t>
   </si>
   <si>
     <t>95,61%</t>
   </si>
   <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>96,38%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>97,59%</t>
-  </si>
-  <si>
-    <t>95,63%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
+    <t>98,78%</t>
   </si>
   <si>
     <t>98,04%</t>
   </si>
   <si>
-    <t>96,72%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
+    <t>96,9%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
   </si>
   <si>
     <t>1,61%</t>
   </si>
   <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
   </si>
   <si>
     <t>2,03%</t>
   </si>
   <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
   </si>
   <si>
     <t>1,81%</t>
   </si>
   <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
+    <t>2,44%</t>
   </si>
   <si>
     <t>98,39%</t>
   </si>
   <si>
-    <t>97,28%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
+    <t>97,37%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
   </si>
   <si>
     <t>97,97%</t>
   </si>
   <si>
-    <t>96,9%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
+    <t>97,0%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
   </si>
   <si>
     <t>98,19%</t>
   </si>
   <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
+    <t>97,56%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -735,7 +735,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C66E79B2-7434-4F60-99E3-01D169179417}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFB892F8-68EA-439F-AE57-B01CFC462845}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1202,10 +1202,10 @@
         <v>48</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1220,13 +1220,13 @@
         <v>197652</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H11" s="7">
         <v>225</v>
@@ -1235,13 +1235,13 @@
         <v>170875</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M11" s="7">
         <v>462</v>
@@ -1250,13 +1250,13 @@
         <v>368527</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1312,7 +1312,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1324,13 +1324,13 @@
         <v>4480</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H13" s="7">
         <v>10</v>
@@ -1339,13 +1339,13 @@
         <v>6294</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="M13" s="7">
         <v>15</v>
@@ -1354,13 +1354,13 @@
         <v>10774</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1375,13 +1375,13 @@
         <v>284944</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H14" s="7">
         <v>332</v>
@@ -1390,13 +1390,13 @@
         <v>254339</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M14" s="7">
         <v>669</v>
@@ -1405,13 +1405,13 @@
         <v>539283</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1479,13 +1479,13 @@
         <v>11660</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H16" s="7">
         <v>22</v>
@@ -1494,13 +1494,13 @@
         <v>13259</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M16" s="7">
         <v>37</v>
@@ -1509,13 +1509,13 @@
         <v>24918</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>84</v>
+        <v>46</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1530,13 +1530,13 @@
         <v>713505</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H17" s="7">
         <v>920</v>
@@ -1545,13 +1545,13 @@
         <v>639620</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M17" s="7">
         <v>1881</v>
@@ -1560,13 +1560,13 @@
         <v>1353126</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>94</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/IP1021_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP1021_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8B857BF2-E3DD-47B3-A82F-785941C6DE05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5356674A-951C-41AE-A13A-B32265A58070}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{53A19592-C34F-4A5F-8370-C3B7E555715B}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{5DE1C6EC-F179-4AE3-9365-707A611F2DB2}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,15 +36,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="94">
   <si>
     <t>Menores según si padecen dolor crónico en 2023 (Tasa respuesta: 99,9%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -77,12 +77,12 @@
     <t>0%</t>
   </si>
   <si>
+    <t>1,74%</t>
+  </si>
+  <si>
     <t>1,64%</t>
   </si>
   <si>
-    <t>1,74%</t>
-  </si>
-  <si>
     <t>0,85%</t>
   </si>
   <si>
@@ -92,235 +92,229 @@
     <t>100,0%</t>
   </si>
   <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
     <t>98,36%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
     <t>99,15%</t>
   </si>
   <si>
     <t>3-7</t>
   </si>
   <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
+    <t>1,07%</t>
   </si>
   <si>
     <t>0,26%</t>
   </si>
   <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>96,14%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>97,32%</t>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
   </si>
   <si>
     <t>99,74%</t>
   </si>
   <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>96,05%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
   </si>
   <si>
     <t>8-11</t>
   </si>
   <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>95,33%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>97,03%</t>
-  </si>
-  <si>
-    <t>94,37%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>95,69%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>94,02%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>95,14%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>95,54%</t>
   </si>
   <si>
     <t>12-15</t>
   </si>
   <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>96,47%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>97,59%</t>
-  </si>
-  <si>
-    <t>95,61%</t>
-  </si>
-  <si>
-    <t>98,78%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>96,9%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>96,07%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>96,74%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
   </si>
   <si>
     <t>1,81%</t>
   </si>
   <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>97,37%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>97,0%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>96,94%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>97,17%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
   </si>
   <si>
     <t>98,19%</t>
   </si>
   <si>
-    <t>97,56%</t>
+    <t>97,51%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -735,7 +729,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFB892F8-68EA-439F-AE57-B01CFC462845}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{859A43F9-52AD-428E-B11C-D6F832A53E30}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -904,10 +898,10 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="D5" s="7">
-        <v>58503</v>
+        <v>57511</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
@@ -919,10 +913,10 @@
         <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="I5" s="7">
-        <v>57369</v>
+        <v>61444</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>17</v>
@@ -937,7 +931,7 @@
         <v>225</v>
       </c>
       <c r="N5" s="7">
-        <v>115871</v>
+        <v>118955</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>17</v>
@@ -955,25 +949,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>109</v>
+      </c>
+      <c r="D6" s="7">
+        <v>57511</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="7">
         <v>116</v>
       </c>
-      <c r="D6" s="7">
-        <v>58503</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" s="7">
-        <v>109</v>
-      </c>
       <c r="I6" s="7">
-        <v>57369</v>
+        <v>61444</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>19</v>
@@ -988,7 +982,7 @@
         <v>225</v>
       </c>
       <c r="N6" s="7">
-        <v>115871</v>
+        <v>118955</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>19</v>
@@ -1008,10 +1002,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D7" s="7">
-        <v>2892</v>
+        <v>1708</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>23</v>
@@ -1023,10 +1017,10 @@
         <v>25</v>
       </c>
       <c r="H7" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I7" s="7">
-        <v>1726</v>
+        <v>3075</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>26</v>
@@ -1041,7 +1035,7 @@
         <v>9</v>
       </c>
       <c r="N7" s="7">
-        <v>4619</v>
+        <v>4783</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>29</v>
@@ -1059,10 +1053,10 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>271</v>
+        <v>254</v>
       </c>
       <c r="D8" s="7">
-        <v>172407</v>
+        <v>157591</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>32</v>
@@ -1074,10 +1068,10 @@
         <v>34</v>
       </c>
       <c r="H8" s="7">
-        <v>254</v>
+        <v>271</v>
       </c>
       <c r="I8" s="7">
-        <v>157039</v>
+        <v>179479</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>35</v>
@@ -1092,7 +1086,7 @@
         <v>525</v>
       </c>
       <c r="N8" s="7">
-        <v>329444</v>
+        <v>337070</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>38</v>
@@ -1110,25 +1104,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>258</v>
+      </c>
+      <c r="D9" s="7">
+        <v>159299</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="7">
         <v>276</v>
       </c>
-      <c r="D9" s="7">
-        <v>175299</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="7">
-        <v>258</v>
-      </c>
       <c r="I9" s="7">
-        <v>158765</v>
+        <v>182554</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>19</v>
@@ -1143,7 +1137,7 @@
         <v>534</v>
       </c>
       <c r="N9" s="7">
-        <v>334063</v>
+        <v>341853</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>19</v>
@@ -1163,10 +1157,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D10" s="7">
-        <v>4287</v>
+        <v>5210</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>42</v>
@@ -1178,10 +1172,10 @@
         <v>44</v>
       </c>
       <c r="H10" s="7">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="I10" s="7">
-        <v>5238</v>
+        <v>4767</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>45</v>
@@ -1196,16 +1190,16 @@
         <v>13</v>
       </c>
       <c r="N10" s="7">
-        <v>9525</v>
+        <v>9977</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>48</v>
       </c>
       <c r="P10" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>49</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1214,49 +1208,49 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
+        <v>225</v>
+      </c>
+      <c r="D11" s="7">
+        <v>167862</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H11" s="7">
         <v>237</v>
       </c>
-      <c r="D11" s="7">
-        <v>197652</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G11" s="7" t="s">
+      <c r="I11" s="7">
+        <v>207188</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="H11" s="7">
-        <v>225</v>
-      </c>
-      <c r="I11" s="7">
-        <v>170875</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="M11" s="7">
         <v>462</v>
       </c>
       <c r="N11" s="7">
-        <v>368527</v>
+        <v>375050</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="P11" s="7" t="s">
-        <v>58</v>
-      </c>
       <c r="Q11" s="7" t="s">
-        <v>59</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1265,25 +1259,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>233</v>
+      </c>
+      <c r="D12" s="7">
+        <v>173072</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="7">
         <v>242</v>
       </c>
-      <c r="D12" s="7">
-        <v>201939</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H12" s="7">
-        <v>233</v>
-      </c>
       <c r="I12" s="7">
-        <v>176113</v>
+        <v>211955</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>19</v>
@@ -1298,7 +1292,7 @@
         <v>475</v>
       </c>
       <c r="N12" s="7">
-        <v>378052</v>
+        <v>385027</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>19</v>
@@ -1312,55 +1306,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
+        <v>10</v>
+      </c>
+      <c r="D13" s="7">
+        <v>6166</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H13" s="7">
         <v>5</v>
       </c>
-      <c r="D13" s="7">
-        <v>4480</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="F13" s="7" t="s">
+      <c r="I13" s="7">
+        <v>4901</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="H13" s="7">
-        <v>10</v>
-      </c>
-      <c r="I13" s="7">
-        <v>6294</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>66</v>
       </c>
       <c r="M13" s="7">
         <v>15</v>
       </c>
       <c r="N13" s="7">
-        <v>10774</v>
+        <v>11067</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1369,49 +1363,49 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
+        <v>332</v>
+      </c>
+      <c r="D14" s="7">
+        <v>269292</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="H14" s="7">
         <v>337</v>
       </c>
-      <c r="D14" s="7">
-        <v>284944</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="F14" s="7" t="s">
+      <c r="I14" s="7">
+        <v>300582</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="H14" s="7">
-        <v>332</v>
-      </c>
-      <c r="I14" s="7">
-        <v>254339</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M14" s="7">
         <v>669</v>
       </c>
       <c r="N14" s="7">
-        <v>539283</v>
+        <v>569873</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1423,7 +1417,7 @@
         <v>342</v>
       </c>
       <c r="D15" s="7">
-        <v>289424</v>
+        <v>275458</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>19</v>
@@ -1438,7 +1432,7 @@
         <v>342</v>
       </c>
       <c r="I15" s="7">
-        <v>260633</v>
+        <v>305483</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -1453,7 +1447,7 @@
         <v>684</v>
       </c>
       <c r="N15" s="7">
-        <v>550057</v>
+        <v>580940</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>
@@ -1473,49 +1467,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>22</v>
+      </c>
+      <c r="D16" s="7">
+        <v>13084</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="H16" s="7">
         <v>15</v>
       </c>
-      <c r="D16" s="7">
-        <v>11660</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="F16" s="7" t="s">
+      <c r="I16" s="7">
+        <v>12743</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="H16" s="7">
-        <v>22</v>
-      </c>
-      <c r="I16" s="7">
-        <v>13259</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M16" s="7">
         <v>37</v>
       </c>
       <c r="N16" s="7">
-        <v>24918</v>
+        <v>25827</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1524,49 +1518,49 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
+        <v>920</v>
+      </c>
+      <c r="D17" s="7">
+        <v>652256</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="H17" s="7">
         <v>961</v>
       </c>
-      <c r="D17" s="7">
-        <v>713505</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="F17" s="7" t="s">
+      <c r="I17" s="7">
+        <v>748693</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="H17" s="7">
-        <v>920</v>
-      </c>
-      <c r="I17" s="7">
-        <v>639620</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>92</v>
       </c>
       <c r="M17" s="7">
         <v>1881</v>
       </c>
       <c r="N17" s="7">
-        <v>1353126</v>
+        <v>1400949</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1575,25 +1569,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>942</v>
+      </c>
+      <c r="D18" s="7">
+        <v>665340</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="7">
         <v>976</v>
       </c>
-      <c r="D18" s="7">
-        <v>725165</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H18" s="7">
-        <v>942</v>
-      </c>
       <c r="I18" s="7">
-        <v>652879</v>
+        <v>761436</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>19</v>
@@ -1608,7 +1602,7 @@
         <v>1918</v>
       </c>
       <c r="N18" s="7">
-        <v>1378044</v>
+        <v>1426776</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>19</v>
@@ -1622,7 +1616,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
